--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value363.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value363.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6285242081322348</v>
+        <v>1.000951647758484</v>
       </c>
       <c r="B1">
-        <v>0.9192115955195197</v>
+        <v>3.151415824890137</v>
       </c>
       <c r="C1">
-        <v>1.822997135437286</v>
+        <v>3.891799926757812</v>
       </c>
       <c r="D1">
-        <v>3.265793426115642</v>
+        <v>2.029496192932129</v>
       </c>
       <c r="E1">
-        <v>2.248996297531213</v>
+        <v>1.199029445648193</v>
       </c>
     </row>
   </sheetData>
